--- a/biology/Botanique/Citronnelle_de_brousse/Citronnelle_de_brousse.xlsx
+++ b/biology/Botanique/Citronnelle_de_brousse/Citronnelle_de_brousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbopogon caesius subsp. giganteus
-La Citronnelle de brousse[2], Cymbopogon caesius subsp. giganteus (Chiov.) Sales (syn. Cymbopogon giganteus Chiov.), est une espèce de plantes herbacées de la famille des poacées originaire d'Afrique.
-Autres noms : beignefala (begnfala, beignfala)[3].
+La Citronnelle de brousse, Cymbopogon caesius subsp. giganteus (Chiov.) Sales (syn. Cymbopogon giganteus Chiov.), est une espèce de plantes herbacées de la famille des poacées originaire d'Afrique.
+Autres noms : beignefala (begnfala, beignfala).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haute de 1 à 3 m, cette plante pérenne regroupée en touffe possède des feuilles en forme de fer de lance (lancéolées) de 15 à 60 cm de long et 8 à 30 mm de large.
 </t>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve en Afrique tropicale: au Nord-Est, l'Éthiopie, la Somalie; à l'Est, le Kenya, la Tanzanie, l'Ouganda; à l'Ouest, le Cameroun et le Bénin, Côte d'Ivoire, Gambie, Ghana, Guinée-Bissau, Mali, Mauritanie, Niger, Nigeria, Sénégal, Sierra Leone, Togo; au Sud, Malawi, Mozambique, Zambie, Zimbabwe; ainsi qu'au Botswana[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve en Afrique tropicale: au Nord-Est, l'Éthiopie, la Somalie; à l'Est, le Kenya, la Tanzanie, l'Ouganda; à l'Ouest, le Cameroun et le Bénin, Côte d'Ivoire, Gambie, Ghana, Guinée-Bissau, Mali, Mauritanie, Niger, Nigeria, Sénégal, Sierra Leone, Togo; au Sud, Malawi, Mozambique, Zambie, Zimbabwe; ainsi qu'au Botswana.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le nord du Cameroun, les Duupas utilisent notamment les feuilles de cette plante pour neutraliser l'odeur d'une sauce salée faite à partir de viande de taurin mise à sécher sur des branches d’arbre et qui s'est décomposée[5].
-Son huile essentielle est traditionnellement utilisée contre les mycoses de la peau et des ongles[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le nord du Cameroun, les Duupas utilisent notamment les feuilles de cette plante pour neutraliser l'odeur d'une sauce salée faite à partir de viande de taurin mise à sécher sur des branches d’arbre et qui s'est décomposée.
+Son huile essentielle est traditionnellement utilisée contre les mycoses de la peau et des ongles.
 </t>
         </is>
       </c>
